--- a/public/images/gospels/14072025.xlsx
+++ b/public/images/gospels/14072025.xlsx
@@ -1,10 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -58,7 +61,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t xml:space="preserve">lunes, 14 de julio de 2025
+    <t>lunes, 14 de julio de 2025
 *Evangelio del Día*
 Mateo 10, 34–11, 1
 En aquel tiempo, Jesús dijo a sus apóstoles: "No piensen que he venido a traer la paz a la tierra; no he venido a traer la paz, sino la guerra. He venido a enfrentar al hijo con su padre, a la hija con su madre, a la nuera con su suegra; y los enemigos de cada uno serán los de su propia familia. El que ama a su padre o a su madre más que a mí, no es digno de mí; el que ama a su hijo o a su hija más que a mí, no es digno de mí; y el que no toma su cruz y me sigue, no es digno de mí. El que salve su vida, la perderá y el que la pierda por mí, la salvará. Quien los recibe a ustedes, me recibe a mí; y quien me recibe a mí, recibe al que me ha enviado. El que recibe a un profeta por ser profeta, recibirá recompensa de profeta; el que recibe a un justo por ser justo, recibirá recompensa de justo. Quien diere, aunque no sea más que un vaso de agua fría a uno de estos pequeños, por ser discípulo mío, yo les aseguro que no perderá su recompensa''. Cuando acabó de dar instrucciones a sus doce discípulos, Jesús partió de ahí para enseñar y predicar en otras ciudades.
@@ -84,17 +87,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -471,7 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -509,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -538,7 +546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -567,7 +575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -598,6 +606,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>